--- a/flatfiles/test_topics.xlsx
+++ b/flatfiles/test_topics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t xml:space="preserve">Трудоустройство</t>
   </si>
@@ -48,7 +48,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,12 +77,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +150,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,13 +171,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
@@ -231,6 +225,44 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>4644278</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/flatfiles/test_topics.xlsx
+++ b/flatfiles/test_topics.xlsx
@@ -174,7 +174,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,8 +224,8 @@
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,10 +257,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>

--- a/flatfiles/test_topics.xlsx
+++ b/flatfiles/test_topics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t xml:space="preserve">Трудоустройство</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Психолог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Каналы</t>
   </si>
   <si>
     <t xml:space="preserve">Михаил</t>
@@ -171,10 +174,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -182,6 +185,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -194,6 +198,9 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
@@ -205,27 +212,36 @@
       <c r="C2" s="6" t="n">
         <v>4644278</v>
       </c>
+      <c r="D2" s="6" t="n">
+        <v>4644278</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,27 +259,36 @@
       <c r="C6" s="6" t="n">
         <v>4644278</v>
       </c>
+      <c r="D6" s="6" t="n">
+        <v>4644278</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/flatfiles/test_topics.xlsx
+++ b/flatfiles/test_topics.xlsx
@@ -20,11 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmanager name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tmanager tg_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kmanager name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kmanager tg_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL answer</t>
+  </si>
   <si>
     <t xml:space="preserve">Трудоустройство</t>
   </si>
   <si>
+    <t xml:space="preserve">Михаил</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cтипендия</t>
   </si>
   <si>
@@ -34,13 +55,16 @@
     <t xml:space="preserve">Каналы</t>
   </si>
   <si>
-    <t xml:space="preserve">Михаил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tashkent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyiv</t>
+    <t xml:space="preserve">Отпуск, материальная помощь, больничный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lexxinternational.net/hr-book/document.php?f=/upload/iblock/ec5/ec5a37689aaa025bff76da33d8b0bd59.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номинации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lexxinternational.net/hr-book/document.php?f=/upload/iblock/4e0/4e0502a1d8b78cd816b2a3b816899411.pdf</t>
   </si>
 </sst>
 </file>
@@ -51,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -75,9 +99,31 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -124,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -137,24 +183,36 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -174,18 +232,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="102.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -195,101 +255,222 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>4644278</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>4644278</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4644278</v>
-      </c>
-      <c r="D2" s="6" t="n">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>4644278</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>4644278</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>4644278</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
-      <c r="B5" s="0"/>
-      <c r="C5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>4644278</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>4644278</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>4644278</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>4644278</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>4644278</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>4644278</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/flatfiles/test_topics.xlsx
+++ b/flatfiles/test_topics.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stadaarz-my.sharepoint.com/personal/kateryna_kucher_stada_com/Documents/Робочий стіл/L/bot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{571F0C35-BA7C-492B-9315-86E44D5F93A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -37,9 +43,6 @@
     <t>Трудоустройство</t>
   </si>
   <si>
-    <t>Михаил</t>
-  </si>
-  <si>
     <t>Cтипендия</t>
   </si>
   <si>
@@ -59,13 +62,39 @@
   </si>
   <si>
     <t>https://lexxinternational.net/hr-book/document.php?f=/upload/iblock/4e0/4e0502a1d8b78cd816b2a3b816899411.pdf</t>
+  </si>
+  <si>
+    <t>Катерина</t>
+  </si>
+  <si>
+    <t>Психолог, Коуч</t>
+  </si>
+  <si>
+    <t>Wellbeing, Велбиинг</t>
+  </si>
+  <si>
+    <t>КСО</t>
+  </si>
+  <si>
+    <t>Ценности, корпоративная культура</t>
+  </si>
+  <si>
+    <t>Программа рекомендаций</t>
+  </si>
+  <si>
+    <t>Обучение, развитие</t>
+  </si>
+  <si>
+    <t>Такси</t>
+  </si>
+  <si>
+    <t>Организационная структура</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +118,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -100,8 +129,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -133,62 +162,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,10 +216,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -240,71 +257,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -332,7 +349,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -355,11 +372,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -368,13 +385,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -384,7 +401,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -393,7 +410,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -402,7 +419,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,10 +427,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -478,25 +495,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="13" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="102.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="41.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,340 +535,420 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="F6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4644278</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="12"/>
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="12"/>
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="12"/>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12"/>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="12"/>
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="12"/>
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="12"/>
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>267010404</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5">
+        <v>267010404</v>
+      </c>
       <c r="F15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
-      <c r="A33" s="10"/>
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
-      <c r="A35" s="10"/>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="6"/>
     </row>
   </sheetData>
